--- a/Optimizacao/Modelo_prob_mistura/instancias.xlsx
+++ b/Optimizacao/Modelo_prob_mistura/instancias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme Cardoso A\Documents\GitHub\Metodos_Numericos\Optimizacao\Modelo_prob_mistura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\GitHub\Metodos_Numericos\Optimizacao\Modelo_prob_mistura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AA6613-F33A-4787-BEF8-D349E0687C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2B84E-8CB7-4111-BCBE-AB4C2980EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instancia01" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Osso</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t>Comp Max</t>
+  </si>
+  <si>
+    <t>L2 Min</t>
+  </si>
+  <si>
+    <t>L2 Max</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -555,48 +570,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +627,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -914,13 +929,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -954,7 +969,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -971,7 +986,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -996,9 +1011,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1010,19 +1025,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E270B905-F760-4354-83D8-352A7F99F41F}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1038,8 +1053,20 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1085,20 @@
       <c r="F2">
         <v>9.5000000000000001E-2</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1078,18 +1117,62 @@
       <c r="F3">
         <v>0.2</v>
       </c>
+      <c r="G3">
+        <v>0.12</v>
+      </c>
+      <c r="H3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.3</v>
+      </c>
+      <c r="J3">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0.12</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>0.11</v>
+      </c>
+      <c r="H4">
+        <v>0.18</v>
+      </c>
+      <c r="I4">
+        <v>0.3</v>
+      </c>
+      <c r="J4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>90</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>180</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>25</v>
       </c>
     </row>
@@ -1100,16 +1183,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAAE363-2A88-41CE-A266-EFDE368C33B4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
     </row>

--- a/Optimizacao/Modelo_prob_mistura/instancias.xlsx
+++ b/Optimizacao/Modelo_prob_mistura/instancias.xlsx
@@ -8,22 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\GitHub\Metodos_Numericos\Optimizacao\Modelo_prob_mistura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2B84E-8CB7-4111-BCBE-AB4C2980EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7AADD-44FF-4239-9E23-F1E390387818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instancia01" sheetId="1" r:id="rId1"/>
     <sheet name="intancia01_quantidades" sheetId="2" r:id="rId2"/>
     <sheet name="instancia02" sheetId="3" r:id="rId3"/>
     <sheet name="intancia02_quantidades" sheetId="4" r:id="rId4"/>
+    <sheet name="instancia03" sheetId="5" r:id="rId5"/>
+    <sheet name="intancia03_quantidades" sheetId="6" r:id="rId6"/>
+    <sheet name="instancia04" sheetId="7" r:id="rId7"/>
+    <sheet name="intancia04_quantidades" sheetId="8" r:id="rId8"/>
+    <sheet name="instancia05" sheetId="9" r:id="rId9"/>
+    <sheet name="intancia05_quantidades" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Osso</t>
   </si>
@@ -64,25 +70,73 @@
     <t>Silício</t>
   </si>
   <si>
-    <t>Comp Min</t>
-  </si>
-  <si>
-    <t>Comp Max</t>
-  </si>
-  <si>
     <t>L2 Min</t>
   </si>
   <si>
     <t>L2 Max</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
     <t>Teste</t>
+  </si>
+  <si>
+    <t>L1 Min</t>
+  </si>
+  <si>
+    <t>L1 Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centeio </t>
+  </si>
+  <si>
+    <t>Aveia</t>
+  </si>
+  <si>
+    <t>Sabor</t>
+  </si>
+  <si>
+    <t>Textura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aveia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milho </t>
+  </si>
+  <si>
+    <t>Trigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibras </t>
+  </si>
+  <si>
+    <t>Ferro</t>
+  </si>
+  <si>
+    <t>Vitamina A</t>
+  </si>
+  <si>
+    <t>Farinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibra </t>
+  </si>
+  <si>
+    <t>Vitamina</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +1059,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59FA412-6F91-43E1-9448-ECEAE1EC29C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB461BD-0A90-4099-B6B2-000B4C6250F3}">
   <dimension ref="A1"/>
@@ -1025,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E270B905-F760-4354-83D8-352A7F99F41F}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1111,7 @@
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1048,25 +1122,19 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1091,14 +1159,8 @@
       <c r="H2">
         <v>0.01</v>
       </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1123,16 +1185,10 @@
       <c r="H3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I3">
-        <v>0.3</v>
-      </c>
-      <c r="J3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.12</v>
@@ -1155,14 +1211,8 @@
       <c r="H4">
         <v>0.18</v>
       </c>
-      <c r="I4">
-        <v>0.3</v>
-      </c>
-      <c r="J4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1183,26 +1233,375 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAAE363-2A88-41CE-A266-EFDE368C33B4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0FE23D-B991-42AA-A339-1FBAACD064D4}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.35</v>
+      </c>
+      <c r="E2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.15</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F6AB6F-30FB-4734-BB27-D2D919EE4171}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BC087C-BF1B-46C7-9B70-71ABAB4C14E7}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710F5839-15C8-4A70-8504-4AD1FF947EAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36735F3D-5566-45BD-82DC-E51E26815C6B}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>